--- a/src/models/baselines/LR/results/synthetic/centrality/in-degree/metrics.xlsx
+++ b/src/models/baselines/LR/results/synthetic/centrality/in-degree/metrics.xlsx
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9984312825221916</v>
       </c>
     </row>
     <row r="9">
@@ -588,7 +588,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999617385981022</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997979797979798</v>
+        <v>0.9969696969696968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997979797979798</v>
+        <v>0.9969696969696968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999961738598102</v>
+        <v>0.9998431282522191</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +656,7 @@
         <v>0.002608069593405685</v>
       </c>
       <c r="D3" t="n">
-        <v>1.209931764680633e-05</v>
+        <v>0.0004960720235189192</v>
       </c>
     </row>
   </sheetData>
